--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2305231.234642424</v>
+        <v>2420665.325383876</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283177</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>109.9645463939864</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
         <v>187.52558716632</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -744,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>83.86517246208599</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>121.2884402765515</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>52.21594625443466</v>
+        <v>34.10833718734057</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>188.8837547751709</v>
+        <v>66.97993907581801</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>188.8837547751709</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>188.8837547751709</v>
+        <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760029</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>76.78647639804569</v>
+        <v>23.94240680425889</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>89.58233480792482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15.59279688185189</v>
+        <v>38.51609368195273</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8174699196705</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937509</v>
       </c>
       <c r="J6" t="n">
-        <v>15.14162995515531</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.27675899167131</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7235338505418</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>188.8837547751709</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>188.8837547751709</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>53.45534151883231</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>106.1987279473164</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>56.87662676879568</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>259.7463664567914</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1214,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>19.01770271805347</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>118.5164846164865</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>115.8769204651471</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1528,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>20.22544352992953</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>97.02629574295494</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.00788511618039</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>152.23727179161</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2132,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>60.42721558712923</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>46.86766651429586</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2369,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>75.00788511618039</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2606,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>115.7228684476123</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>177.314903109061</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3001,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>131.9527903262032</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>27.02919805176216</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>213.6608990998122</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,16 +3483,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>178.2798710842933</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>75.12653431054495</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>145.7322552292192</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428712</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365856</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444117</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>98.74897854931388</v>
+        <v>22.6126310577748</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.4426321268591</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="C2" t="n">
-        <v>322.4426321268591</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="D2" t="n">
-        <v>322.4426321268591</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="E2" t="n">
-        <v>211.367332738994</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897905</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G2" t="n">
         <v>15.0020469733056</v>
@@ -4328,52 +4330,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678506</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058967</v>
+        <v>80.81213159058996</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123833</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262258</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433439</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268591</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268591</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268591</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268591</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X2" t="n">
-        <v>322.4426321268591</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.4426321268591</v>
+        <v>750.1023486652798</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>475.9702682325468</v>
+        <v>438.1689876118742</v>
       </c>
       <c r="C3" t="n">
-        <v>475.9702682325468</v>
+        <v>438.1689876118742</v>
       </c>
       <c r="D3" t="n">
-        <v>475.9702682325468</v>
+        <v>438.1689876118742</v>
       </c>
       <c r="E3" t="n">
-        <v>475.9702682325468</v>
+        <v>278.9315326064187</v>
       </c>
       <c r="F3" t="n">
-        <v>329.4357102594317</v>
+        <v>132.3969746333037</v>
       </c>
       <c r="G3" t="n">
-        <v>191.8965290818809</v>
+        <v>132.3969746333037</v>
       </c>
       <c r="H3" t="n">
-        <v>90.03616812153776</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="I3" t="n">
-        <v>30.5366136729605</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="J3" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652801</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V3" t="n">
-        <v>665.3900532490317</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W3" t="n">
-        <v>475.9702682325468</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X3" t="n">
-        <v>475.9702682325468</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y3" t="n">
-        <v>475.9702682325468</v>
+        <v>438.1689876118742</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="C4" t="n">
         <v>15.0020469733056</v>
@@ -4492,46 +4494,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910415</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>587.4857148522285</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="C5" t="n">
-        <v>587.4857148522285</v>
+        <v>1334.756049600245</v>
       </c>
       <c r="D5" t="n">
-        <v>396.6940433621569</v>
+        <v>1267.099545483258</v>
       </c>
       <c r="E5" t="n">
-        <v>396.6940433621569</v>
+        <v>1267.099545483258</v>
       </c>
       <c r="F5" t="n">
-        <v>205.9023718720853</v>
+        <v>856.1136406936499</v>
       </c>
       <c r="G5" t="n">
-        <v>15.11070038201367</v>
+        <v>439.6975955077414</v>
       </c>
       <c r="H5" t="n">
-        <v>15.11070038201367</v>
+        <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>15.11070038201367</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J5" t="n">
-        <v>21.53729092590493</v>
+        <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>81.90760247543585</v>
+        <v>277.9807166746991</v>
       </c>
       <c r="L5" t="n">
-        <v>193.7040741186809</v>
+        <v>521.2049416030781</v>
       </c>
       <c r="M5" t="n">
-        <v>349.7686271398428</v>
+        <v>823.5081935709205</v>
       </c>
       <c r="N5" t="n">
-        <v>512.9722761681868</v>
+        <v>1135.316836582755</v>
       </c>
       <c r="O5" t="n">
-        <v>653.7455927875739</v>
+        <v>1416.413635079243</v>
       </c>
       <c r="P5" t="n">
-        <v>739.3913607574793</v>
+        <v>1621.822248332762</v>
       </c>
       <c r="Q5" t="n">
-        <v>755.5350191006836</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="R5" t="n">
-        <v>677.9729217289203</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="S5" t="n">
-        <v>677.9729217289203</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="T5" t="n">
-        <v>677.9729217289203</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="U5" t="n">
-        <v>677.9729217289203</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="V5" t="n">
-        <v>677.9729217289203</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="W5" t="n">
-        <v>677.9729217289203</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="X5" t="n">
-        <v>677.9729217289203</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="Y5" t="n">
-        <v>587.4857148522285</v>
+        <v>1703.718566540657</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147.9914041766376</v>
+        <v>117.2216366514323</v>
       </c>
       <c r="C6" t="n">
-        <v>147.9914041766376</v>
+        <v>117.2216366514323</v>
       </c>
       <c r="D6" t="n">
-        <v>147.9914041766376</v>
+        <v>117.2216366514323</v>
       </c>
       <c r="E6" t="n">
-        <v>147.9914041766376</v>
+        <v>117.2216366514323</v>
       </c>
       <c r="F6" t="n">
-        <v>147.9914041766376</v>
+        <v>117.2216366514323</v>
       </c>
       <c r="G6" t="n">
-        <v>132.2411042959791</v>
+        <v>78.31649151814675</v>
       </c>
       <c r="H6" t="n">
-        <v>30.40527609429176</v>
+        <v>78.31649151814675</v>
       </c>
       <c r="I6" t="n">
-        <v>30.40527609429176</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J6" t="n">
-        <v>15.11070038201367</v>
+        <v>61.66788464787557</v>
       </c>
       <c r="K6" t="n">
-        <v>67.64486236340899</v>
+        <v>186.1577239806069</v>
       </c>
       <c r="L6" t="n">
-        <v>184.6060674208088</v>
+        <v>399.8722171189988</v>
       </c>
       <c r="M6" t="n">
-        <v>340.4511451914191</v>
+        <v>668.6238185223515</v>
       </c>
       <c r="N6" t="n">
-        <v>514.8296233548629</v>
+        <v>958.8971200352498</v>
       </c>
       <c r="O6" t="n">
-        <v>652.1320680747581</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>742.9963185165462</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>753.8174671994203</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>680.8106399351059</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="S6" t="n">
-        <v>529.5747471567809</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="T6" t="n">
-        <v>529.5747471567809</v>
+        <v>1250.338042626307</v>
       </c>
       <c r="U6" t="n">
-        <v>529.5747471567809</v>
+        <v>1022.222900581863</v>
       </c>
       <c r="V6" t="n">
-        <v>338.7830756667092</v>
+        <v>787.0707923501207</v>
       </c>
       <c r="W6" t="n">
-        <v>338.7830756667092</v>
+        <v>532.8334356219191</v>
       </c>
       <c r="X6" t="n">
-        <v>147.9914041766376</v>
+        <v>324.9819354163862</v>
       </c>
       <c r="Y6" t="n">
-        <v>147.9914041766376</v>
+        <v>117.2216366514323</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.10599484548065</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="C7" t="n">
-        <v>69.10599484548065</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="D7" t="n">
-        <v>69.10599484548065</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="E7" t="n">
-        <v>69.10599484548065</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="F7" t="n">
-        <v>15.11070038201367</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="G7" t="n">
-        <v>15.11070038201367</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="H7" t="n">
-        <v>15.11070038201367</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I7" t="n">
-        <v>15.11070038201367</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J7" t="n">
-        <v>15.11070038201367</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="K7" t="n">
-        <v>15.11070038201367</v>
+        <v>64.24066662574715</v>
       </c>
       <c r="L7" t="n">
-        <v>27.45863662426283</v>
+        <v>132.129986158412</v>
       </c>
       <c r="M7" t="n">
-        <v>43.73608709747901</v>
+        <v>206.9680378347979</v>
       </c>
       <c r="N7" t="n">
-        <v>67.48402208628085</v>
+        <v>287.8841338195376</v>
       </c>
       <c r="O7" t="n">
-        <v>69.10599484548065</v>
+        <v>342.3101561934728</v>
       </c>
       <c r="P7" t="n">
-        <v>69.10599484548065</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.10599484548065</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="R7" t="n">
-        <v>69.10599484548065</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="S7" t="n">
-        <v>69.10599484548065</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="T7" t="n">
-        <v>69.10599484548065</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="U7" t="n">
-        <v>69.10599484548065</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="V7" t="n">
-        <v>69.10599484548065</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="W7" t="n">
-        <v>69.10599484548065</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="X7" t="n">
-        <v>69.10599484548065</v>
+        <v>141.8294986877844</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.10599484548065</v>
+        <v>34.55805631675776</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>152.507818430191</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>366.8168396232736</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>669.587892771189</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1038.148464578733</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1417.28654013517</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="V8" t="n">
-        <v>2746.967338392416</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="W8" t="n">
-        <v>2746.967338392416</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="X8" t="n">
-        <v>2373.501580131336</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>1392.578675329486</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>99.24512613112574</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>99.24512613112574</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>99.24512613112574</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>80.03532540581921</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>80.03532540581921</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>80.03532540581921</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>80.03532540581921</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>1595.273638474385</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>1400.563316948361</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>1172.461727081625</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>937.3096188498821</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>683.0722621216805</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>475.2207619161477</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>267.4604631511938</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.773976541745</v>
+        <v>377.7528057267195</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>377.7528057267195</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>377.7528057267195</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>229.8397121443264</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>229.8397121443264</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981548</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>497.4664265514534</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>497.4664265514534</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.7528057267195</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.7528057267195</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.7528057267195</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.7528057267195</v>
       </c>
       <c r="W10" t="n">
-        <v>631.4698357812242</v>
+        <v>377.7528057267195</v>
       </c>
       <c r="X10" t="n">
-        <v>514.4224413719847</v>
+        <v>377.7528057267195</v>
       </c>
       <c r="Y10" t="n">
-        <v>514.4224413719847</v>
+        <v>377.7528057267195</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,19 +5120,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5269,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,10 +5278,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647277</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C16" t="n">
-        <v>631.5645865368208</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D16" t="n">
-        <v>481.447947124485</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E16" t="n">
-        <v>333.5348535420919</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>478.4901340122882</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>311.2940347271681</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>169.5822035693662</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949674</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5546,7 +5548,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5592,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>3160.179968880559</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>4334.712221995193</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>4080.027733789307</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>3790.610563752346</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>3562.621012854329</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>3341.828433710799</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5750,25 +5752,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2824.769373306003</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>2824.769373306003</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>2674.652733893667</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>2526.739640311274</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>2526.739640311274</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,19 +6071,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>478.4901340122882</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>311.2940347271681</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>169.5822035693662</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6205,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6254,19 +6256,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,22 +6308,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991043</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6409,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2330.071297269541</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>2040.996070613739</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1786.311582407852</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1496.894412370891</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>1268.904861472874</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6463,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3025.687952571559</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4307.646967511755</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4018.571740855953</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3763.887252650066</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3474.470082613106</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3246.480531715089</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3025.687952571559</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,10 +6736,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6774,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>2561.485266376193</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>2561.485266376193</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7017,19 +7019,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7154,67 +7156,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444888</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684175</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>696.7084350851671</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>546.5917956728314</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>398.6787020904383</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>251.7887545925279</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7357,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7391,55 +7393,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444888</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684175</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400767</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121698</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121698</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121698</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121698</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270497</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611864</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138465</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703164</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168591</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362666</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444888</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684175</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>48.3947522799763</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>6.257951202385144</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>15.00954930701783</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>88.18825743108312</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>118.656471777973</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>6.257951202385144</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>101.682581879676</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>48.39475227997619</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>85.45266000108506</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>121.5862749664502</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>12.04875628922494</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>73.85777223953465</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>90.39760398172389</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>211.1765892730638</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>34.09972495271805</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392193677</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>68.49784254930827</v>
+        <v>144.634190040853</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>802216.5338230638</v>
+        <v>802216.5338230639</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>802216.5338230638</v>
+        <v>802216.5338230639</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>802216.5338230639</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>802216.5338230638</v>
+        <v>802216.5338230639</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>802216.5338230639</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>802216.5338230641</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="L2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>1503.414218518002</v>
+        <v>270592.3620253134</v>
       </c>
       <c r="D3" t="n">
-        <v>662166.6844385746</v>
+        <v>115410.054023193</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>601443.2075742641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>349.5488811547057</v>
+        <v>62913.63765881991</v>
       </c>
       <c r="L3" t="n">
-        <v>162615.447369419</v>
+        <v>27875.25362197482</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>278136.7270444456</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26448,16 +26450,16 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189211</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.5839718921</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.5839718921</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>57093.86446622568</v>
+        <v>76435.73471936827</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-290571.8961217693</v>
       </c>
       <c r="C6" t="n">
-        <v>299573.3659156305</v>
+        <v>82674.85197379162</v>
       </c>
       <c r="D6" t="n">
-        <v>-227389.9974592009</v>
+        <v>261495.2456768574</v>
       </c>
       <c r="E6" t="n">
-        <v>182957.0391566005</v>
+        <v>-93073.70661030838</v>
       </c>
       <c r="F6" t="n">
-        <v>508369.5009639558</v>
+        <v>508369.5009639557</v>
       </c>
       <c r="G6" t="n">
-        <v>508369.500963956</v>
+        <v>508369.5009639557</v>
       </c>
       <c r="H6" t="n">
-        <v>508369.5009639558</v>
+        <v>508369.5009639556</v>
       </c>
       <c r="I6" t="n">
         <v>508369.5009639557</v>
       </c>
       <c r="J6" t="n">
-        <v>459304.5562354112</v>
+        <v>459304.556235411</v>
       </c>
       <c r="K6" t="n">
-        <v>508019.9520828011</v>
+        <v>445455.8633051357</v>
       </c>
       <c r="L6" t="n">
-        <v>345754.0535945368</v>
+        <v>480494.247341981</v>
       </c>
       <c r="M6" t="n">
-        <v>423314.4730284439</v>
+        <v>351223.120412358</v>
       </c>
       <c r="N6" t="n">
-        <v>508369.5009639559</v>
+        <v>508369.5009639558</v>
       </c>
       <c r="O6" t="n">
         <v>508369.5009639555</v>
       </c>
       <c r="P6" t="n">
-        <v>508369.5009639555</v>
+        <v>508369.5009639557</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>549.6390906373987</v>
+        <v>758.8996292950624</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>188.8837547751709</v>
+        <v>431.9757039594721</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>1.169149724493877</v>
+        <v>210.4296883821578</v>
       </c>
       <c r="D3" t="n">
-        <v>540.1376099558996</v>
+        <v>94.81103524262255</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>514.2648358039888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>1.358167608850863</v>
+        <v>244.4501167931521</v>
       </c>
       <c r="D4" t="n">
-        <v>642.5177006271218</v>
+        <v>110.1392527666922</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608850773</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271221</v>
+        <v>110.1392527666919</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608850863</v>
+        <v>244.4501167931521</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271218</v>
+        <v>110.1392527666922</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>200.100354594913</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>271.9658236782753</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988673</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27464,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V3" t="n">
-        <v>148.9354146873393</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459957</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>84.39425550075286</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>115.0308748441932</v>
+        <v>133.1384839112873</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>165.7992868455121</v>
+        <v>287.7031025448649</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>217.9922909665405</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>224.2093783554922</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8456912132938</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.2901165380509</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.6687096750907</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4233063711054</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1688845570787</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>296.6556038481287</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>120.5684777090443</v>
+        <v>97.19507333522702</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>58.81797564619264</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074785</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>195.3994614844842</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8636029643752</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>43.91683237425437</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>16.88923042830658</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27783,22 +27785,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>91.96570650409893</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9998268999323</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4149261034498</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>125.643817356299</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>56.92094262157563</v>
+        <v>30.24193919304039</v>
       </c>
       <c r="K7" t="n">
-        <v>13.85936344355255</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,22 +27815,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>17.85261942882059</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.50949894319865</v>
+        <v>36.91115760589143</v>
       </c>
       <c r="R7" t="n">
-        <v>132.7275726510617</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7435138279248</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7106652873048</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2649664951167</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>112.3859254047784</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>325.8572148946849</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>68.0058920133435</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,22 +27934,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>138.6273777373475</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>78.6712061431293</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>109.8327349238901</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31042,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.209604384471953</v>
+        <v>3.050852781085676</v>
       </c>
       <c r="H5" t="n">
-        <v>22.62911090247339</v>
+        <v>31.24454604429368</v>
       </c>
       <c r="I5" t="n">
-        <v>85.18577303235504</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5374101265766</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>281.0699637212744</v>
+        <v>388.0799144520273</v>
       </c>
       <c r="L5" t="n">
-        <v>348.692143902558</v>
+        <v>481.4474502511782</v>
       </c>
       <c r="M5" t="n">
-        <v>387.9871958749111</v>
+        <v>535.7030533968106</v>
       </c>
       <c r="N5" t="n">
-        <v>394.265234332292</v>
+        <v>544.3712888610702</v>
       </c>
       <c r="O5" t="n">
-        <v>372.293480734199</v>
+        <v>514.0343715191495</v>
       </c>
       <c r="P5" t="n">
-        <v>317.7438724925477</v>
+        <v>438.7164434860968</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.6124154736458</v>
+        <v>329.457778263466</v>
       </c>
       <c r="R5" t="n">
-        <v>138.7990614160864</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>50.35135991115467</v>
+        <v>69.5213077489899</v>
       </c>
       <c r="T5" t="n">
-        <v>9.672543193025978</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1767683507577562</v>
+        <v>0.244068222486854</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.182242572314405</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>11.41797431682596</v>
+        <v>15.76506588403517</v>
       </c>
       <c r="I6" t="n">
-        <v>40.70440435380736</v>
+        <v>56.20152915062491</v>
       </c>
       <c r="J6" t="n">
-        <v>111.6959967115114</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>190.9062490565765</v>
+        <v>263.5887514316634</v>
       </c>
       <c r="L6" t="n">
-        <v>256.6970111509851</v>
+        <v>354.4276051721893</v>
       </c>
       <c r="M6" t="n">
-        <v>299.5533043973822</v>
+        <v>413.6002979658089</v>
       </c>
       <c r="N6" t="n">
-        <v>307.4815890161047</v>
+        <v>424.5470671468671</v>
       </c>
       <c r="O6" t="n">
-        <v>281.2855825453487</v>
+        <v>388.3776244374457</v>
       </c>
       <c r="P6" t="n">
-        <v>225.7564785676516</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.9122273010458</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>73.40274497229264</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>21.95963725329606</v>
+        <v>30.32018801947724</v>
       </c>
       <c r="T6" t="n">
-        <v>4.765267210337446</v>
+        <v>6.579516597378888</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07777911659963192</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9911524585264565</v>
+        <v>1.368507528236998</v>
       </c>
       <c r="H7" t="n">
-        <v>8.812246403989775</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>29.80665757095927</v>
+        <v>41.15475366734536</v>
       </c>
       <c r="J7" t="n">
-        <v>70.07447881782048</v>
+        <v>96.75348224635572</v>
       </c>
       <c r="K7" t="n">
-        <v>115.1538947269828</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>147.357339152197</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>155.3676531124699</v>
+        <v>214.5197755399141</v>
       </c>
       <c r="N7" t="n">
-        <v>151.673357585235</v>
+        <v>209.4189747528491</v>
       </c>
       <c r="O7" t="n">
-        <v>140.0948947742668</v>
+        <v>193.432318627535</v>
       </c>
       <c r="P7" t="n">
-        <v>119.875384620327</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.99550268624719</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>44.56581872610775</v>
+        <v>61.53307486054717</v>
       </c>
       <c r="S7" t="n">
-        <v>17.27308420904742</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>4.234924140976677</v>
+        <v>5.847259438830807</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05406286137417042</v>
+        <v>0.07464586517656359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32072,22 +32074,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,28 +32314,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,10 +32551,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32789,7 +32791,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33026,10 +33028,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33737,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33883,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33973,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704916</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34214,31 +34216,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34451,31 +34453,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.491505599890303</v>
+        <v>77.89141170198428</v>
       </c>
       <c r="K5" t="n">
-        <v>60.98011267629386</v>
+        <v>167.9900634070468</v>
       </c>
       <c r="L5" t="n">
-        <v>112.9257289325707</v>
+        <v>245.6810352811909</v>
       </c>
       <c r="M5" t="n">
-        <v>157.6409626476384</v>
+        <v>305.3568201695379</v>
       </c>
       <c r="N5" t="n">
-        <v>164.8521707357011</v>
+        <v>314.9582252644793</v>
       </c>
       <c r="O5" t="n">
-        <v>142.1952693125123</v>
+        <v>283.9361600974628</v>
       </c>
       <c r="P5" t="n">
-        <v>86.51087673727812</v>
+        <v>207.4834477308273</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.30672559919628</v>
+        <v>107.1520883890165</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>27.38366498092708</v>
       </c>
       <c r="K6" t="n">
-        <v>53.06481008221749</v>
+        <v>125.7473124573044</v>
       </c>
       <c r="L6" t="n">
-        <v>118.142631371111</v>
+        <v>215.8732253923151</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4192704753639</v>
+        <v>271.4662640437906</v>
       </c>
       <c r="N6" t="n">
-        <v>176.1398769327714</v>
+        <v>293.2053550635337</v>
       </c>
       <c r="O6" t="n">
-        <v>138.6893381009043</v>
+        <v>245.7813799930013</v>
       </c>
       <c r="P6" t="n">
-        <v>91.78207115332134</v>
+        <v>177.7328761729191</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.93045321502427</v>
+        <v>68.38629016872846</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>29.98243465554484</v>
       </c>
       <c r="L7" t="n">
-        <v>12.47266287095874</v>
+        <v>68.575070235015</v>
       </c>
       <c r="M7" t="n">
-        <v>16.44186916486484</v>
+        <v>75.59399159230901</v>
       </c>
       <c r="N7" t="n">
-        <v>23.98781312000185</v>
+        <v>81.73343028761587</v>
       </c>
       <c r="O7" t="n">
-        <v>1.638356322424045</v>
+        <v>54.97578017569217</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>27.78676100235245</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35720,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37555,13 +37557,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561613</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317163</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2420665.325383876</v>
+        <v>2416360.202386807</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9271219.703133248</v>
+        <v>9271219.703133246</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C2" t="n">
-        <v>165.1725371760945</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>68.11693918766126</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>60.10515207292522</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>121.2884402765515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.10833718734057</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>66.97993907581801</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760029</v>
+        <v>92.85788772760056</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425889</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>81.99019363173163</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>84.07098562832955</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>38.51609368195273</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937509</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589169</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>115.1652455485221</v>
       </c>
       <c r="Y7" t="n">
-        <v>106.1987279473164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.87662676879568</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>290.3618821770512</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708287</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,13 +1214,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>108.4292452768526</v>
       </c>
       <c r="E9" t="n">
-        <v>19.01770271805347</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721421</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -1268,7 +1268,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923915</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425542</v>
+        <v>9.854692234071514</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>118.5164846164865</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>94.30373791808189</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>20.22544352992953</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>75.00788511618039</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>152.23727179161</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>60.42721558712923</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>75.00788511618039</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>177.314903109061</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>20.88994825141581</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>213.6608990998122</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>178.2798710842933</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>161.0175085755505</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.7322552292192</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>22.6126310577748</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487949</v>
+        <v>482.8222414097403</v>
       </c>
       <c r="C2" t="n">
-        <v>393.8416170062752</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="D2" t="n">
-        <v>393.8416170062752</v>
+        <v>103.982671376771</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062752</v>
+        <v>103.982671376771</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897904</v>
+        <v>97.03717062756751</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>83.8070360517513</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058996</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262249</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>438.1689876118742</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="C3" t="n">
-        <v>438.1689876118742</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="D3" t="n">
-        <v>438.1689876118742</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="E3" t="n">
-        <v>278.9315326064187</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>132.3969746333037</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>132.3969746333037</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264275</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264275</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>616.2255328052909</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487949</v>
+        <v>616.2255328052909</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487949</v>
+        <v>616.2255328052909</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487949</v>
+        <v>616.2255328052909</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487949</v>
+        <v>616.2255328052909</v>
       </c>
       <c r="Y3" t="n">
-        <v>438.1689876118742</v>
+        <v>616.2255328052909</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828974</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.718566540657</v>
+        <v>1314.02155108852</v>
       </c>
       <c r="C5" t="n">
-        <v>1334.756049600245</v>
+        <v>1314.02155108852</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.099545483258</v>
+        <v>955.7558524817691</v>
       </c>
       <c r="E5" t="n">
-        <v>1267.099545483258</v>
+        <v>955.7558524817691</v>
       </c>
       <c r="F5" t="n">
-        <v>856.1136406936499</v>
+        <v>544.7699476921616</v>
       </c>
       <c r="G5" t="n">
-        <v>439.6975955077414</v>
+        <v>128.3539025062531</v>
       </c>
       <c r="H5" t="n">
-        <v>128.353902506253</v>
+        <v>128.3539025062531</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675776</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017225</v>
+        <v>111.6705539017213</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746991</v>
+        <v>277.9807166746968</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030781</v>
+        <v>521.2049416030748</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709205</v>
+        <v>823.5081935709159</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582755</v>
+        <v>1135.316836582749</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079243</v>
+        <v>1416.413635079236</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332762</v>
+        <v>1621.822248332754</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837888</v>
+        <v>1727.90281583788</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540657</v>
+        <v>1727.90281583788</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540657</v>
+        <v>1727.90281583788</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540657</v>
+        <v>1727.90281583788</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540657</v>
+        <v>1645.08443843209</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540657</v>
+        <v>1314.02155108852</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.718566540657</v>
+        <v>1314.02155108852</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.718566540657</v>
+        <v>1314.02155108852</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.718566540657</v>
+        <v>1314.02155108852</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117.2216366514323</v>
+        <v>663.7175082377064</v>
       </c>
       <c r="C6" t="n">
-        <v>117.2216366514323</v>
+        <v>489.2644789565794</v>
       </c>
       <c r="D6" t="n">
-        <v>117.2216366514323</v>
+        <v>340.3300692953281</v>
       </c>
       <c r="E6" t="n">
-        <v>117.2216366514323</v>
+        <v>181.0926142898726</v>
       </c>
       <c r="F6" t="n">
-        <v>117.2216366514323</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="G6" t="n">
-        <v>78.31649151814675</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814675</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787557</v>
+        <v>61.66788464787507</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806069</v>
+        <v>186.1577239806058</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189988</v>
+        <v>399.872217118997</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223515</v>
+        <v>668.6238185223488</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352498</v>
+        <v>958.8971200352462</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.220686228317</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.176233639506</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906547</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906547</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906547</v>
       </c>
       <c r="T6" t="n">
-        <v>1250.338042626307</v>
+        <v>1445.878660906547</v>
       </c>
       <c r="U6" t="n">
-        <v>1022.222900581863</v>
+        <v>1445.878660906547</v>
       </c>
       <c r="V6" t="n">
-        <v>787.0707923501207</v>
+        <v>1210.726552674804</v>
       </c>
       <c r="W6" t="n">
-        <v>532.8334356219191</v>
+        <v>956.4891959466024</v>
       </c>
       <c r="X6" t="n">
-        <v>324.9819354163862</v>
+        <v>748.6376957410696</v>
       </c>
       <c r="Y6" t="n">
-        <v>117.2216366514323</v>
+        <v>748.6376957410696</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574715</v>
+        <v>64.24066662574666</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158412</v>
+        <v>132.129986158411</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347979</v>
+        <v>206.9680378347965</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195376</v>
+        <v>287.8841338195357</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934728</v>
+        <v>342.3101561934706</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495857991</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858017</v>
+        <v>332.5350520040903</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858017</v>
+        <v>332.5350520040903</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858017</v>
+        <v>332.5350520040903</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858017</v>
+        <v>332.5350520040903</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858017</v>
+        <v>332.5350520040903</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858017</v>
+        <v>332.5350520040903</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858017</v>
+        <v>332.5350520040903</v>
       </c>
       <c r="X7" t="n">
-        <v>141.8294986877844</v>
+        <v>216.2065211469973</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675776</v>
+        <v>216.2065211469973</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1335.127537179187</v>
+        <v>724.5626859657668</v>
       </c>
       <c r="C8" t="n">
-        <v>1335.127537179187</v>
+        <v>355.6001690253551</v>
       </c>
       <c r="D8" t="n">
-        <v>1335.127537179187</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="E8" t="n">
-        <v>949.3392845809428</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.507818430191</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232736</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.587892771189</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578733</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.28654013517</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305298</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1782.718007305298</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.718007305298</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.718007305298</v>
+        <v>1111.162526029889</v>
       </c>
       <c r="Y8" t="n">
-        <v>1392.578675329486</v>
+        <v>1111.162526029889</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.24512613112574</v>
+        <v>327.3467159978591</v>
       </c>
       <c r="C9" t="n">
-        <v>99.24512613112574</v>
+        <v>152.893686716732</v>
       </c>
       <c r="D9" t="n">
-        <v>99.24512613112574</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E9" t="n">
-        <v>80.03532540581921</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F9" t="n">
-        <v>80.03532540581921</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581921</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581921</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972667</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474385</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948361</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081625</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="V9" t="n">
-        <v>937.3096188498821</v>
+        <v>1165.411208716615</v>
       </c>
       <c r="W9" t="n">
-        <v>683.0722621216805</v>
+        <v>911.1738519884138</v>
       </c>
       <c r="X9" t="n">
-        <v>475.2207619161477</v>
+        <v>703.322351782881</v>
       </c>
       <c r="Y9" t="n">
-        <v>267.4604631511938</v>
+        <v>495.5620530179271</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>377.7528057267195</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="C10" t="n">
-        <v>377.7528057267195</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="D10" t="n">
-        <v>377.7528057267195</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E10" t="n">
-        <v>229.8397121443264</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>229.8397121443264</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981548</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514534</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514534</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="S10" t="n">
-        <v>377.7528057267195</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="T10" t="n">
-        <v>377.7528057267195</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="U10" t="n">
-        <v>377.7528057267195</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="V10" t="n">
-        <v>377.7528057267195</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="W10" t="n">
-        <v>377.7528057267195</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="X10" t="n">
-        <v>377.7528057267195</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="Y10" t="n">
-        <v>377.7528057267195</v>
+        <v>510.3351124607289</v>
       </c>
     </row>
     <row r="11">
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.8410298377091</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1413.271624709496</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.282073811479</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.4894946679489</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.345997432834</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>923.4098145049275</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>773.2931750925917</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>625.3800815101986</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>478.4901340122882</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>311.2940347271681</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>169.5822035693662</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5603,16 +5603,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3160.179968880559</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>3006.404946868832</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4623.787448650995</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4334.712221995193</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>4080.027733789307</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3790.610563752346</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>3562.621012854329</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>3341.828433710799</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5743,34 +5743,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5843,13 +5843,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6068,19 +6068,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.345997432834</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>923.4098145049275</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>773.2931750925917</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>625.3800815101986</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>478.4901340122882</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>311.2940347271681</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>169.5822035693662</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.776592304621</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.787041406604</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.994462263074</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6305,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6466,10 +6466,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6481,10 +6481,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>197.0043242297712</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>197.0043242297712</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>197.0043242297712</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6736,10 +6736,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6785,7 +6785,7 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
         <v>1373.553594266881</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
         <v>388.6197041282753</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>928.4651056120481</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>707.672526468518</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1508.305175991783</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1508.305175991783</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.315625093766</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1901.695539989114</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7785,19 +7785,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>266.2975548066615</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>6.257951202385144</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>15.00954930701783</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>88.18825743108312</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>6.257951202385144</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>48.39475227997619</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>119.4047645948081</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>12.04875628922494</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>73.85777223953465</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.09972495271805</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>802216.5338230639</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>802216.5338230639</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>802216.5338230639</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
@@ -26334,28 +26334,28 @@
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253134</v>
+        <v>270592.3620253113</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.054023193</v>
+        <v>115410.0540231941</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742641</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881991</v>
+        <v>62913.63765881947</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197482</v>
+        <v>27875.25362197517</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926346</v>
+        <v>206604.4229263465</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936827</v>
+        <v>76435.73471936809</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-290571.8961217693</v>
       </c>
       <c r="C6" t="n">
-        <v>82674.85197379162</v>
+        <v>82674.85197379354</v>
       </c>
       <c r="D6" t="n">
-        <v>261495.2456768574</v>
+        <v>261495.2456768557</v>
       </c>
       <c r="E6" t="n">
-        <v>-93073.70661030838</v>
+        <v>-93421.08586466624</v>
       </c>
       <c r="F6" t="n">
-        <v>508369.5009639557</v>
+        <v>508022.1217095988</v>
       </c>
       <c r="G6" t="n">
-        <v>508369.5009639557</v>
+        <v>508022.1217095988</v>
       </c>
       <c r="H6" t="n">
-        <v>508369.5009639556</v>
+        <v>508022.1217095986</v>
       </c>
       <c r="I6" t="n">
-        <v>508369.5009639557</v>
+        <v>508022.1217095984</v>
       </c>
       <c r="J6" t="n">
-        <v>459304.556235411</v>
+        <v>458957.1769810541</v>
       </c>
       <c r="K6" t="n">
-        <v>445455.8633051357</v>
+        <v>445108.4840507793</v>
       </c>
       <c r="L6" t="n">
-        <v>480494.247341981</v>
+        <v>480146.8680876238</v>
       </c>
       <c r="M6" t="n">
-        <v>351223.120412358</v>
+        <v>350875.7411580011</v>
       </c>
       <c r="N6" t="n">
-        <v>508369.5009639558</v>
+        <v>508022.1217095988</v>
       </c>
       <c r="O6" t="n">
-        <v>508369.5009639555</v>
+        <v>508022.1217095988</v>
       </c>
       <c r="P6" t="n">
-        <v>508369.5009639557</v>
+        <v>508022.1217095986</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950624</v>
+        <v>758.8996292950607</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594721</v>
+        <v>431.97570395947</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821578</v>
+        <v>210.4296883821562</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262255</v>
+        <v>94.81103524262346</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039888</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931521</v>
+        <v>244.4501167931502</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666922</v>
+        <v>110.1392527666933</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931502</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666919</v>
+        <v>110.1392527666933</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734848</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931521</v>
+        <v>244.4501167931502</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666922</v>
+        <v>110.1392527666933</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>195.2082544971608</v>
       </c>
       <c r="C2" t="n">
-        <v>200.100354594913</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>248.776886918561</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>135.304445719076</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.39425550075286</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1384839112873</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>94.21801639213486</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>287.7031025448649</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425932</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>169.111391053618</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>82.46219802153779</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>97.19507333522702</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937521</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074785</v>
+        <v>44.33060630074807</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304039</v>
+        <v>30.24193919304061</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>115.7603165166225</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913143</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>110.5444098405151</v>
       </c>
       <c r="Y7" t="n">
-        <v>112.3859254047784</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>325.8572148946849</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>64.32115944363176</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,25 +27934,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>39.01582028778617</v>
       </c>
       <c r="E9" t="n">
-        <v>138.6273777373475</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>12.73999905018402</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>78.6712061431293</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31077,10 +31077,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31123,7 +31123,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31132,7 +31132,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31141,7 +31141,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31150,19 +31150,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085676</v>
+        <v>3.050852781085668</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429368</v>
+        <v>31.24454604429361</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428054</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286706</v>
+        <v>258.93731622867</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520273</v>
+        <v>388.0799144520265</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511782</v>
+        <v>481.4474502511771</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968106</v>
+        <v>535.7030533968093</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610702</v>
+        <v>544.371288861069</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191495</v>
+        <v>514.0343715191484</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860968</v>
+        <v>438.7164434860958</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.457778263466</v>
+        <v>329.4577782634652</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098728</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489899</v>
+        <v>69.52130774898974</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920252</v>
       </c>
       <c r="U5" t="n">
-        <v>0.244068222486854</v>
+        <v>0.2440682224868534</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.632350146030885</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403517</v>
+        <v>15.76506588403513</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062491</v>
+        <v>56.20152915062479</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>154.2212916475934</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316634</v>
+        <v>263.5887514316627</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721893</v>
+        <v>354.4276051721885</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658089</v>
+        <v>413.600297965808</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468671</v>
+        <v>424.5470671468661</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374457</v>
+        <v>388.3776244374449</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.7072835872486</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>208.3680642547495</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.3488976632159</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947724</v>
+        <v>30.32018801947717</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378888</v>
+        <v>6.579516597378873</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757162</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236998</v>
+        <v>1.368507528236995</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377983</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734536</v>
+        <v>41.15475366734527</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635572</v>
+        <v>96.7534822463555</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260799</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>203.4597465162528</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399141</v>
+        <v>214.5197755399136</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528491</v>
+        <v>209.4189747528486</v>
       </c>
       <c r="O7" t="n">
-        <v>193.432318627535</v>
+        <v>193.4323186275345</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>165.5147650514997</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235542</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054717</v>
+        <v>61.53307486054702</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391203</v>
+        <v>23.84935392391198</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830807</v>
+        <v>5.847259438830793</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656359</v>
+        <v>0.07464586517656342</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,7 +31846,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33025,13 +33025,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33505,10 +33505,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34789,16 +34789,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198428</v>
+        <v>77.89141170198371</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070468</v>
+        <v>167.9900634070459</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811909</v>
+        <v>245.6810352811898</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695379</v>
+        <v>305.3568201695366</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644793</v>
+        <v>314.9582252644781</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974628</v>
+        <v>283.9361600974617</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308273</v>
+        <v>207.4834477308263</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890165</v>
+        <v>107.1520883890157</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092708</v>
+        <v>27.38366498092674</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573044</v>
+        <v>125.7473124573037</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923151</v>
+        <v>215.8732253923143</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437906</v>
+        <v>271.4662640437897</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635337</v>
+        <v>293.2053550635328</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930013</v>
+        <v>245.7813799930004</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729191</v>
+        <v>177.7328761729184</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872846</v>
+        <v>68.38629016872798</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554484</v>
+        <v>29.98243465554449</v>
       </c>
       <c r="L7" t="n">
-        <v>68.575070235015</v>
+        <v>68.57507023501455</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230901</v>
+        <v>75.59399159230853</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761587</v>
+        <v>81.73343028761539</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569217</v>
+        <v>54.97578017569174</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235245</v>
+        <v>27.78676100235208</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662057</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093967</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440065</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,7 +35494,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2416360.202386807</v>
+        <v>2418120.732689592</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>187.5255871663198</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>150.1450882057757</v>
+      </c>
+      <c r="G2" t="n">
         <v>187.5255871663198</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G2" t="n">
-        <v>13.09783323005805</v>
-      </c>
       <c r="H2" t="n">
-        <v>68.11693918766126</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>115.6925776258992</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>60.10515207292522</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="4">
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>171.4690689674591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760056</v>
+        <v>92.85788772760006</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425852</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372553</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>81.99019363173163</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84.07098562832955</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937498</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074765</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843605</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>173.1092214805071</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589169</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>115.1652455485221</v>
+        <v>152.0764031544186</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>290.3618821770512</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>47.56251607845459</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1217,16 +1217,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>108.4292452768526</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>20.27697994470624</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>31.68046530976811</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.854692234071514</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>94.30373791808189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>99.65140663107616</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784695</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>41.33703994142957</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>107.7122866515512</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>112.5284434523285</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>83.53432244437066</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>161.0175085755505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>21.90286287505374</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>672.2420264262249</v>
+      </c>
+      <c r="C2" t="n">
         <v>482.8222414097403</v>
       </c>
-      <c r="C2" t="n">
-        <v>293.4024563932556</v>
-      </c>
       <c r="D2" t="n">
-        <v>103.982671376771</v>
+        <v>482.8222414097403</v>
       </c>
       <c r="E2" t="n">
-        <v>103.982671376771</v>
+        <v>482.8222414097403</v>
       </c>
       <c r="F2" t="n">
-        <v>97.03717062756751</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="G2" t="n">
-        <v>83.8070360517513</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>448.0101957852228</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C3" t="n">
-        <v>448.0101957852228</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="D3" t="n">
-        <v>299.0757861239715</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="E3" t="n">
-        <v>299.0757861239715</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
         <v>15.00204697330559</v>
@@ -4421,10 +4421,10 @@
         <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
         <v>739.5989987017058</v>
@@ -4433,28 +4433,28 @@
         <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264275</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264275</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T3" t="n">
-        <v>616.2255328052909</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U3" t="n">
-        <v>616.2255328052909</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="V3" t="n">
-        <v>616.2255328052909</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="W3" t="n">
-        <v>616.2255328052909</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="X3" t="n">
-        <v>616.2255328052909</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="Y3" t="n">
-        <v>616.2255328052909</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1314.02155108852</v>
+        <v>978.1098746288054</v>
       </c>
       <c r="C5" t="n">
-        <v>1314.02155108852</v>
+        <v>978.1098746288054</v>
       </c>
       <c r="D5" t="n">
-        <v>955.7558524817691</v>
+        <v>619.8441760220549</v>
       </c>
       <c r="E5" t="n">
-        <v>955.7558524817691</v>
+        <v>619.8441760220549</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921616</v>
+        <v>612.8986752728514</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>439.6975955077412</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>128.3539025062529</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017213</v>
+        <v>111.6705539017228</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746968</v>
+        <v>277.9807166746999</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030748</v>
+        <v>521.2049416030799</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709159</v>
+        <v>823.5081935709233</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582749</v>
+        <v>1135.316836582759</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079236</v>
+        <v>1416.413635079248</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332754</v>
+        <v>1621.822248332768</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.90281583788</v>
+        <v>1727.902815837895</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.90281583788</v>
+        <v>1703.718566540664</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.90281583788</v>
+        <v>1562.810726301012</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.90281583788</v>
+        <v>1562.810726301012</v>
       </c>
       <c r="U5" t="n">
-        <v>1645.08443843209</v>
+        <v>1309.172761972376</v>
       </c>
       <c r="V5" t="n">
-        <v>1314.02155108852</v>
+        <v>978.1098746288054</v>
       </c>
       <c r="W5" t="n">
-        <v>1314.02155108852</v>
+        <v>978.1098746288054</v>
       </c>
       <c r="X5" t="n">
-        <v>1314.02155108852</v>
+        <v>978.1098746288054</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.02155108852</v>
+        <v>978.1098746288054</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377064</v>
+        <v>707.4759434390955</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565794</v>
+        <v>533.0229141579686</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953281</v>
+        <v>384.0885044967173</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898726</v>
+        <v>224.8510494912618</v>
       </c>
       <c r="F6" t="n">
-        <v>34.5580563167576</v>
+        <v>78.31649151814676</v>
       </c>
       <c r="G6" t="n">
-        <v>34.5580563167576</v>
+        <v>78.31649151814676</v>
       </c>
       <c r="H6" t="n">
-        <v>34.5580563167576</v>
+        <v>78.31649151814676</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787507</v>
+        <v>61.66788464787601</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806058</v>
+        <v>186.1577239806078</v>
       </c>
       <c r="L6" t="n">
-        <v>399.872217118997</v>
+        <v>399.8722171190005</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223488</v>
+        <v>668.623818522354</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352462</v>
+        <v>958.8971200352531</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228317</v>
+        <v>1202.220686228325</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639506</v>
+        <v>1378.176233639516</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906547</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906547</v>
+        <v>1401.100270703782</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906547</v>
+        <v>1258.309378699377</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906547</v>
+        <v>1083.451579224117</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906547</v>
+        <v>1083.451579224117</v>
       </c>
       <c r="V6" t="n">
-        <v>1210.726552674804</v>
+        <v>1083.451579224117</v>
       </c>
       <c r="W6" t="n">
-        <v>956.4891959466024</v>
+        <v>1083.451579224117</v>
       </c>
       <c r="X6" t="n">
-        <v>748.6376957410696</v>
+        <v>1083.451579224117</v>
       </c>
       <c r="Y6" t="n">
-        <v>748.6376957410696</v>
+        <v>875.6912804591636</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="C7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="D7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="E7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="F7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="G7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="H7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="I7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="J7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574666</v>
+        <v>64.24066662574759</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158411</v>
+        <v>132.1299861584129</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347965</v>
+        <v>206.9680378347992</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195357</v>
+        <v>287.8841338195393</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934706</v>
+        <v>342.310156193475</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857991</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040903</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="R7" t="n">
-        <v>332.5350520040903</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="S7" t="n">
-        <v>332.5350520040903</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="T7" t="n">
-        <v>332.5350520040903</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="U7" t="n">
-        <v>332.5350520040903</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="V7" t="n">
-        <v>332.5350520040903</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="W7" t="n">
-        <v>332.5350520040903</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="X7" t="n">
-        <v>216.2065211469973</v>
+        <v>216.2065211469976</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.2065211469973</v>
+        <v>216.2065211469976</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>724.5626859657668</v>
+        <v>514.3886881176818</v>
       </c>
       <c r="C8" t="n">
-        <v>355.6001690253551</v>
+        <v>514.3886881176818</v>
       </c>
       <c r="D8" t="n">
-        <v>62.30533854348519</v>
+        <v>514.3886881176818</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348519</v>
+        <v>514.3886881176818</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>103.4027833280742</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>91.41214207188557</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>91.41214207188557</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
@@ -4807,16 +4807,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4834,22 +4834,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290968</v>
+        <v>1274.454286442883</v>
       </c>
       <c r="X8" t="n">
-        <v>1111.162526029889</v>
+        <v>900.9885281818035</v>
       </c>
       <c r="Y8" t="n">
-        <v>1111.162526029889</v>
+        <v>900.9885281818035</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>327.3467159978591</v>
+        <v>693.0104463829875</v>
       </c>
       <c r="C9" t="n">
-        <v>152.893686716732</v>
+        <v>518.5574171018606</v>
       </c>
       <c r="D9" t="n">
-        <v>43.36919653809306</v>
+        <v>369.6230074406093</v>
       </c>
       <c r="E9" t="n">
-        <v>43.36919653809306</v>
+        <v>210.3855524351538</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="G9" t="n">
         <v>43.36919653809306</v>
@@ -4907,28 +4907,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948358</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1400.563316948358</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V9" t="n">
-        <v>1165.411208716615</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W9" t="n">
-        <v>911.1738519884138</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>703.322351782881</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>495.5620530179271</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>510.3351124607289</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>341.3989295328219</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="D10" t="n">
-        <v>191.2822901204862</v>
+        <v>370.1727076282633</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>222.2596140458702</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>75.36966654795984</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>75.36966654795984</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>75.36966654795984</v>
       </c>
       <c r="I10" t="n">
         <v>43.36919653809306</v>
@@ -4965,7 +4965,7 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
@@ -4983,31 +4983,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>510.3351124607289</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>510.3351124607289</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>510.3351124607289</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>510.3351124607289</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>510.3351124607289</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>510.3351124607289</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>510.3351124607289</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>510.3351124607289</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>510.3351124607289</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2356.04164637206</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679666</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556308</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732377</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>189.0729639753273</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5606,7 +5606,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,16 +6022,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6548,13 +6548,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>983.355603809821</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>814.4194208819141</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>664.3027814695783</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>516.3896878871852</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782927</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038313</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797714</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924456</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1903.203368718569</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1613.786198681608</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>1385.796647783591</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>1165.004068640061</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,10 +6952,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
@@ -7022,13 +7022,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797186</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7557,16 +7557,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>198.027470314254</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>198.027470314254</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7736,19 +7736,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7791,16 +7791,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>152.4862366927518</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>107.2784330767828</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>32.89260457060276</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>62.89964020219851</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>118.3918499711701</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597545</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="L2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597551</v>
-      </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
@@ -26368,13 +26368,13 @@
         <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253113</v>
+        <v>270592.3620253154</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231941</v>
+        <v>115410.0540231902</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742651</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881947</v>
+        <v>62913.63765882037</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197517</v>
+        <v>27875.25362197428</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263465</v>
+        <v>206604.4229263454</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189195</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26438,7 +26438,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26450,13 +26450,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26472,7 +26472,7 @@
         <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936809</v>
+        <v>76435.7347193684</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290571.8961217693</v>
+        <v>-290571.896121769</v>
       </c>
       <c r="C6" t="n">
-        <v>82674.85197379354</v>
+        <v>82674.85197379004</v>
       </c>
       <c r="D6" t="n">
-        <v>261495.2456768557</v>
+        <v>261495.2456768596</v>
       </c>
       <c r="E6" t="n">
-        <v>-93421.08586466624</v>
+        <v>-93108.44453574542</v>
       </c>
       <c r="F6" t="n">
-        <v>508022.1217095988</v>
+        <v>508334.7630385201</v>
       </c>
       <c r="G6" t="n">
-        <v>508022.1217095988</v>
+        <v>508334.7630385199</v>
       </c>
       <c r="H6" t="n">
-        <v>508022.1217095986</v>
+        <v>508334.76303852</v>
       </c>
       <c r="I6" t="n">
-        <v>508022.1217095984</v>
+        <v>508334.7630385201</v>
       </c>
       <c r="J6" t="n">
-        <v>458957.1769810541</v>
+        <v>459269.8183099753</v>
       </c>
       <c r="K6" t="n">
-        <v>445108.4840507793</v>
+        <v>445421.1253796995</v>
       </c>
       <c r="L6" t="n">
-        <v>480146.8680876238</v>
+        <v>480459.5094165455</v>
       </c>
       <c r="M6" t="n">
-        <v>350875.7411580011</v>
+        <v>351188.382486922</v>
       </c>
       <c r="N6" t="n">
-        <v>508022.1217095988</v>
+        <v>508334.7630385201</v>
       </c>
       <c r="O6" t="n">
-        <v>508022.1217095988</v>
+        <v>508334.7630385201</v>
       </c>
       <c r="P6" t="n">
-        <v>508022.1217095986</v>
+        <v>508334.7630385199</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950607</v>
+        <v>758.8996292950638</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26792,19 +26792,19 @@
         <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>431.97570395947</v>
+        <v>431.9757039594737</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821562</v>
+        <v>210.4296883821594</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262346</v>
+        <v>94.81103524262028</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931502</v>
+        <v>244.4501167931539</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666933</v>
+        <v>110.1392527666895</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931502</v>
+        <v>244.4501167931537</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666933</v>
+        <v>110.1392527666898</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734848</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931502</v>
+        <v>244.4501167931539</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666933</v>
+        <v>110.1392527666895</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971608</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>256.7309575359357</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>248.776886918561</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>57.01592136241649</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>58.9045589040915</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>135.304445719076</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310546</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098455</v>
       </c>
     </row>
     <row r="4">
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>240.7828157665903</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425932</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>169.111391053618</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.46219802153779</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>96.47037835246127</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937521</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074807</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>20.47599061693558</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304061</v>
+        <v>30.2419391930402</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.9111576058912</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166222</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>110.5444098405151</v>
+        <v>73.6332522346186</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>64.32115944363176</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>30.6010904986284</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27937,16 +27937,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>39.01582028778617</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>115.230253902329</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28031,7 +28031,7 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>77.47370013731542</v>
       </c>
       <c r="J10" t="n">
         <v>18.15430933923925</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.73999905018402</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.133261760295336e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.39870123556527e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085668</v>
+        <v>3.050852781085681</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429361</v>
+        <v>31.24454604429375</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428059</v>
       </c>
       <c r="J5" t="n">
-        <v>258.93731622867</v>
+        <v>258.9373162286711</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520265</v>
+        <v>388.079914452028</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511771</v>
+        <v>481.4474502511791</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968093</v>
+        <v>535.7030533968116</v>
       </c>
       <c r="N5" t="n">
-        <v>544.371288861069</v>
+        <v>544.3712888610713</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191484</v>
+        <v>514.0343715191506</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860958</v>
+        <v>438.7164434860977</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634652</v>
+        <v>329.4577782634666</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098728</v>
+        <v>191.6431310098736</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898974</v>
+        <v>69.52130774899004</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920252</v>
+        <v>13.35510804920258</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868534</v>
+        <v>0.2440682224868545</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030885</v>
+        <v>1.632350146030892</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403513</v>
+        <v>15.7650658840352</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062479</v>
+        <v>56.20152915062502</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475934</v>
+        <v>154.2212916475941</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316627</v>
+        <v>263.5887514316639</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721885</v>
+        <v>354.42760517219</v>
       </c>
       <c r="M6" t="n">
-        <v>413.600297965808</v>
+        <v>413.6002979658097</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468661</v>
+        <v>424.5470671468678</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374449</v>
+        <v>388.3776244374465</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872486</v>
+        <v>311.7072835872499</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547495</v>
+        <v>208.3680642547504</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632163</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947717</v>
+        <v>30.3201880194773</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378873</v>
+        <v>6.5795165973789</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1073914569757166</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528237</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377988</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734527</v>
+        <v>41.15475366734544</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463555</v>
+        <v>96.75348224635592</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260799</v>
+        <v>158.9956928260805</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162528</v>
+        <v>203.4597465162537</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399136</v>
+        <v>214.5197755399145</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528486</v>
+        <v>209.4189747528495</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275345</v>
+        <v>193.4323186275354</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514997</v>
+        <v>165.5147650515004</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.5938440235546</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054702</v>
+        <v>61.53307486054729</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391198</v>
+        <v>23.84935392391208</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830793</v>
+        <v>5.847259438830817</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656342</v>
+        <v>0.07464586517656374</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>332.9841464938405</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34456,7 +34456,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34471,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198371</v>
+        <v>77.89141170198479</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070459</v>
+        <v>167.9900634070475</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811898</v>
+        <v>245.6810352811918</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695366</v>
+        <v>305.3568201695389</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644781</v>
+        <v>314.9582252644804</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974617</v>
+        <v>283.9361600974638</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308263</v>
+        <v>207.4834477308282</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890157</v>
+        <v>107.1520883890171</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092674</v>
+        <v>27.38366498092739</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573037</v>
+        <v>125.7473124573049</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923143</v>
+        <v>215.8732253923158</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437897</v>
+        <v>271.4662640437914</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635328</v>
+        <v>293.2053550635345</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930004</v>
+        <v>245.7813799930021</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729184</v>
+        <v>177.7328761729197</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872798</v>
+        <v>68.38629016872886</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554449</v>
+        <v>29.98243465554515</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501455</v>
+        <v>68.5750702350154</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230853</v>
+        <v>75.59399159230941</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761539</v>
+        <v>81.73343028761627</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569174</v>
+        <v>54.97578017569256</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235208</v>
+        <v>27.78676100235279</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0097390795103</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295035</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38119,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
